--- a/Desktop/Borang Baru - Edited/Digestion/Titan/Borang peluluhan.xlsx
+++ b/Desktop/Borang Baru - Edited/Digestion/Titan/Borang peluluhan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20339"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang Baru - Edited\Digestion\Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97641ABC-538B-48AA-80CF-D3E7EC7AA061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF796BC7-5AD8-4D28-BF14-0CD7004C72B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="7" r:id="rId1"/>
@@ -1343,219 +1343,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1603,6 +1390,219 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2598,7 +2598,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2652,7 +2652,7 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019287" y="923328"/>
+              <a:chOff x="5019286" y="923328"/>
               <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
@@ -2719,7 +2719,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019287" y="923328"/>
+                <a:off x="5019286" y="923328"/>
                 <a:ext cx="304606" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2766,7 +2766,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792674" y="927231"/>
+                <a:off x="6792673" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3669,7 +3669,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3723,8 +3723,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3790,7 +3790,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3837,7 +3837,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4792,7 +4792,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4846,8 +4846,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -4913,7 +4913,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4960,7 +4960,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -5915,7 +5915,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5969,8 +5969,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -6036,7 +6036,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -6083,7 +6083,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7038,7 +7038,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7092,8 +7092,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019302" y="923328"/>
-              <a:chExt cx="2078187" cy="229184"/>
+              <a:chOff x="5019301" y="923328"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7159,7 +7159,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019302" y="923328"/>
+                <a:off x="5019301" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8161,7 +8161,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8215,8 +8215,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -8282,7 +8282,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8329,7 +8329,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -9284,7 +9284,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9338,8 +9338,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -9405,7 +9405,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -9452,7 +9452,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10407,7 +10407,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10461,8 +10461,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -10528,7 +10528,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10575,7 +10575,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -11149,6 +11149,7 @@
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1050"/>
@@ -11529,7 +11530,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11583,8 +11584,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -11650,7 +11651,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -11697,7 +11698,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -12652,7 +12653,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12706,8 +12707,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -12773,7 +12774,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -12820,7 +12821,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -13775,7 +13776,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -13829,8 +13830,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -13896,7 +13897,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -13943,7 +13944,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -14898,7 +14899,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -14952,8 +14953,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078191" cy="229184"/>
+              <a:chOff x="5019288" y="923328"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -15019,7 +15020,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
+                <a:off x="5019288" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -15066,7 +15067,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792679" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -16034,7 +16035,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -17274,8 +17275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17290,46 +17291,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B14</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G14</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -17342,11 +17343,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -17355,196 +17356,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -17553,16 +17551,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -17572,70 +17570,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -17677,79 +17675,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -17757,53 +17790,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R            16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -17974,8 +17972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17990,46 +17988,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B15</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G15</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -18042,11 +18040,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -18055,196 +18053,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -18253,16 +18248,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -18272,70 +18267,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -18377,79 +18372,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -18457,53 +18487,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R            16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -18674,8 +18669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H27"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18690,46 +18685,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B16</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G16</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -18742,11 +18737,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -18755,196 +18750,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -18953,16 +18945,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -18972,70 +18964,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -19077,79 +19069,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -19157,53 +19184,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R            16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -19375,7 +19367,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19390,46 +19382,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B17</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G17</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -19442,11 +19434,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -19455,196 +19447,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -19653,16 +19642,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="44" t="s">
         <v>74</v>
       </c>
@@ -19672,70 +19661,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="43"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="43"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="43"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="43"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="45"/>
       <c r="H22" s="18"/>
     </row>
@@ -19777,114 +19766,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -19892,18 +19846,53 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R          16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -20074,7 +20063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -20090,46 +20079,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B6</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G6</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -20142,11 +20131,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -20155,196 +20144,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -20353,16 +20339,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -20372,70 +20358,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -20477,79 +20463,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -20557,53 +20578,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R           16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -20774,8 +20760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20790,46 +20776,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B7</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G7</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -20842,11 +20828,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -20855,196 +20841,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -21053,16 +21036,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -21072,70 +21055,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -21177,79 +21160,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -21257,53 +21275,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R          16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -21474,8 +21457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21490,46 +21473,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B8</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G8</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -21542,11 +21525,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -21555,196 +21538,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -21753,16 +21733,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -21772,70 +21752,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -21877,79 +21857,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -21957,53 +21972,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R            16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -22174,8 +22154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22190,46 +22170,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B9</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G9</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -22242,11 +22222,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -22255,196 +22235,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -22453,16 +22430,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -22472,70 +22449,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -22577,79 +22554,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -22657,53 +22669,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R            16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -22874,8 +22851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:H28"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22890,46 +22867,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B10</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G10</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -22942,11 +22919,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -22955,196 +22932,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -23153,16 +23127,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -23172,70 +23146,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -23277,79 +23251,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -23357,53 +23366,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R           16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -23574,8 +23548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23590,46 +23564,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B11</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G11</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -23642,11 +23616,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -23655,196 +23629,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -23853,16 +23824,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -23872,70 +23843,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -23977,79 +23948,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -24057,53 +24063,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R            16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -24274,8 +24245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24290,46 +24261,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B12</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G12</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -24342,11 +24313,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -24355,196 +24326,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -24553,16 +24521,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -24572,70 +24540,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -24677,79 +24645,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -24757,53 +24760,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R            16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -24974,8 +24942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24990,46 +24958,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79">
         <f>FormTitan!B13</f>
         <v>0</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="str">
         <f>FormTitan!G13</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -25042,11 +25010,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -25055,196 +25023,193 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="136">
-        <f>FormTitan!B21</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="100">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128">
-        <f>E5</f>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="100">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="100">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="119" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="115">
         <v>2.5</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="106" t="e">
+      <c r="G12" s="118" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107"/>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="120">
         <v>0.25</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="106" t="e">
+      <c r="G13" s="118" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="e">
+      <c r="G14" s="118" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="120">
         <v>0.15</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="106" t="e">
+      <c r="G15" s="118" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -25253,16 +25218,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -25272,70 +25237,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -25377,79 +25342,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="145"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77">
+      <c r="A29" s="152">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79">
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -25457,53 +25457,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   PKKK/HMS/003/004/005    &amp;R           1-April-2024</oddHeader>
+    <oddHeader>&amp;LPKKK/UAT/003&amp;R           16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
